--- a/configTools/Luban/ConfigRoot/Datas/itemOld.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/itemOld.xlsx
@@ -4370,7 +4370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12397,6 +12397,6 @@
   <autoFilter ref="A4:Z138"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>